--- a/report2.xlsx
+++ b/report2.xlsx
@@ -16,79 +16,79 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
+    <t>Female</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Female</t>
+    <t>Bachelor of Arts (Honours Course) History</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts (Honours Course) Economics</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts (Honours Course) (Political Science)</t>
+  </si>
+  <si>
+    <t>Bachelor of Science (Honours Course) Chemistry</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts (Honours Course) Punjabi</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts (Honours Course) English</t>
+  </si>
+  <si>
+    <t>Bachelor of Science (Honours Course) Mathematics</t>
   </si>
   <si>
     <t>Bachelor of Science (Honours Course) Zoology</t>
   </si>
   <si>
-    <t>Bachelor of Arts (Honours Course) Economics</t>
+    <t>Bachelor of Science (Physical Sciences)</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts (Honours Course) (Philosophy)</t>
+  </si>
+  <si>
+    <t>Master of Science (Mathematics)</t>
+  </si>
+  <si>
+    <t>Bachelor of Science (Honours Course) Physics</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts (Honours Course) Hindi</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts (Honours Course) Geography</t>
+  </si>
+  <si>
+    <t>Bachelor of Science (Honours Course) Computer Science</t>
+  </si>
+  <si>
+    <t>Bachelor of Commerce</t>
+  </si>
+  <si>
+    <t>Bachelor of Science (Life Sciences)</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts (Honours Course) (Sanskrit)</t>
+  </si>
+  <si>
+    <t>Bachelor of Commerce (Honours Course)</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts (Honours Course) (Urdu)</t>
+  </si>
+  <si>
+    <t>Master of Arts (English)</t>
   </si>
   <si>
     <t>Bachelor of Arts</t>
   </si>
   <si>
-    <t>Bachelor of Arts (Honours Course) (Philosophy)</t>
-  </si>
-  <si>
-    <t>Bachelor of Science (Life Sciences)</t>
-  </si>
-  <si>
-    <t>Bachelor of Commerce (Honours Course)</t>
-  </si>
-  <si>
-    <t>Bachelor of Arts (Honours Course) Hindi</t>
-  </si>
-  <si>
     <t>Bachelor of Science (Honours Course) Botany</t>
-  </si>
-  <si>
-    <t>Bachelor of Commerce</t>
-  </si>
-  <si>
-    <t>Bachelor of Arts (Honours Course) History</t>
-  </si>
-  <si>
-    <t>Master of Science (Mathematics)</t>
-  </si>
-  <si>
-    <t>Bachelor of Science (Honours Course) Computer Science</t>
-  </si>
-  <si>
-    <t>Bachelor of Science (Honours Course) Physics</t>
-  </si>
-  <si>
-    <t>Bachelor of Arts (Honours Course) (Sanskrit)</t>
-  </si>
-  <si>
-    <t>Master of Arts (English)</t>
-  </si>
-  <si>
-    <t>Bachelor of Science (Honours Course) Mathematics</t>
-  </si>
-  <si>
-    <t>Bachelor of Arts (Honours Course) English</t>
-  </si>
-  <si>
-    <t>Bachelor of Arts (Honours Course) (Political Science)</t>
-  </si>
-  <si>
-    <t>Bachelor of Science (Honours Course) Chemistry</t>
-  </si>
-  <si>
-    <t>Bachelor of Science (Physical Sciences)</t>
-  </si>
-  <si>
-    <t>Bachelor of Arts (Honours Course) (Urdu)</t>
-  </si>
-  <si>
-    <t>Bachelor of Arts (Honours Course) Punjabi</t>
-  </si>
-  <si>
-    <t>Bachelor of Arts (Honours Course) Geography</t>
   </si>
 </sst>
 </file>
@@ -465,10 +465,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="C2">
-        <v>126</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -476,10 +476,10 @@
         <v>3</v>
       </c>
       <c r="B3">
+        <v>168</v>
+      </c>
+      <c r="C3">
         <v>322</v>
-      </c>
-      <c r="C3">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -487,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1057</v>
+        <v>252</v>
       </c>
       <c r="C4">
-        <v>343</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -498,10 +498,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>287</v>
+        <v>84</v>
       </c>
       <c r="C5">
-        <v>56</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -509,10 +509,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>217</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -520,10 +520,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1134</v>
+        <v>252</v>
       </c>
       <c r="C7">
-        <v>504</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -531,10 +531,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>392</v>
+        <v>196</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -542,10 +542,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C9">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -553,10 +553,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1260</v>
+        <v>189</v>
       </c>
       <c r="C10">
-        <v>399</v>
+        <v>742</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -564,10 +564,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>364</v>
+        <v>56</v>
       </c>
       <c r="C11">
-        <v>175</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -575,6 +575,9 @@
         <v>12</v>
       </c>
       <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <v>4</v>
       </c>
     </row>
@@ -583,10 +586,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>322</v>
+        <v>70</v>
       </c>
       <c r="C13">
-        <v>126</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -594,10 +597,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>308</v>
+        <v>56</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -605,10 +608,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -616,10 +619,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -627,10 +630,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>476</v>
+        <v>399</v>
       </c>
       <c r="C17">
-        <v>196</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -638,10 +641,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>294</v>
+        <v>217</v>
       </c>
       <c r="C18">
-        <v>252</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -649,10 +652,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>434</v>
+        <v>28</v>
       </c>
       <c r="C19">
-        <v>252</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -660,10 +663,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>140</v>
+        <v>504</v>
       </c>
       <c r="C20">
-        <v>84</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -671,10 +674,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>742</v>
+        <v>49</v>
       </c>
       <c r="C21">
-        <v>189</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -682,10 +685,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -693,10 +696,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>42</v>
+        <v>343</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -704,10 +707,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="C24">
-        <v>175</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
